--- a/xlsx/棒球_intext.xlsx
+++ b/xlsx/棒球_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="452">
   <si>
     <t>棒球</t>
   </si>
@@ -29,19 +29,19 @@
     <t>棒球 (球)</t>
   </si>
   <si>
-    <t>政策_政策_美國_棒球</t>
+    <t>政策_政策_美国_棒球</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3</t>
   </si>
   <si>
-    <t>台灣</t>
+    <t>台湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%97%E5%85%AD%E6%A3%92%E7%90%83%E5%A0%B4</t>
   </si>
   <si>
-    <t>斗六棒球場</t>
+    <t>斗六棒球场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E6%A0%BC%E5%85%B0</t>
@@ -59,7 +59,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%BE%A4%E8%A5%BF</t>
   </si>
   <si>
-    <t>新澤西</t>
+    <t>新泽西</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9C%8D%E5%8D%9A%E8%82%AF_(%E6%96%B0%E6%B3%BD%E8%A5%BF%E5%B7%9E)</t>
@@ -77,7 +77,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%90%83%E9%A1%9E%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>球類運動</t>
+    <t>球类运动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%87%E5%BD%A2</t>
@@ -89,7 +89,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A3%92%E7%90%83%E5%A0%B4</t>
   </si>
   <si>
-    <t>棒球場</t>
+    <t>棒球场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%90%83%E6%A3%92</t>
@@ -101,13 +101,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%AC%E5%A3%98</t>
   </si>
   <si>
-    <t>本壘</t>
+    <t>本垒</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BB%B6%E9%95%B7%E8%B3%BD</t>
   </si>
   <si>
-    <t>延長賽</t>
+    <t>延长赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/MLB</t>
@@ -125,31 +125,31 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A3%AB%E9%A0%93</t>
   </si>
   <si>
-    <t>波士頓</t>
+    <t>波士顿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%AD%B7%E5%B1%B1%E5%A4%A7%C2%B7%E5%8D%A1%E7%89%B9%E4%BE%86%E7%89%B9</t>
   </si>
   <si>
-    <t>亞歷山大·卡特來特</t>
+    <t>亚历山大·卡特来特</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%8C%97%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>南北戰爭</t>
+    <t>南北战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BE%9B%E8%BE%9B%E9%82%A3%E6%8F%90%E7%B4%85%E4%BA%BA</t>
   </si>
   <si>
-    <t>辛辛那提紅人</t>
+    <t>辛辛那提红人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%B1%E5%BD%A2</t>
@@ -161,13 +161,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%80%86%E6%99%82%E9%87%9D</t>
   </si>
   <si>
-    <t>逆時針</t>
+    <t>逆时针</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E9%87%8E</t>
   </si>
   <si>
-    <t>內野</t>
+    <t>内野</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%96%E9%87%8E</t>
@@ -179,31 +179,31 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A3%98%E5%8C%85</t>
   </si>
   <si>
-    <t>壘包</t>
+    <t>垒包</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%93%E6%93%8A%E6%89%8B</t>
   </si>
   <si>
-    <t>打擊手</t>
+    <t>打击手</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%80%E5%A3%98</t>
   </si>
   <si>
-    <t>一壘</t>
+    <t>一垒</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%8C%E5%A3%98</t>
   </si>
   <si>
-    <t>二壘</t>
+    <t>二垒</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E5%A3%98</t>
   </si>
   <si>
-    <t>三壘</t>
+    <t>三垒</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8A%95%E6%89%8B</t>
@@ -227,31 +227,31 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%80%E5%A3%98%E6%89%8B</t>
   </si>
   <si>
-    <t>一壘手</t>
+    <t>一垒手</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%8C%E5%A3%98%E6%89%8B</t>
   </si>
   <si>
-    <t>二壘手</t>
+    <t>二垒手</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E5%A3%98%E6%89%8B</t>
   </si>
   <si>
-    <t>三壘手</t>
+    <t>三垒手</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%B8%E6%93%8A%E6%89%8B</t>
   </si>
   <si>
-    <t>游擊手</t>
+    <t>游击手</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E9%87%8E%E6%89%8B</t>
   </si>
   <si>
-    <t>內野手</t>
+    <t>内野手</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%96%E9%87%8E%E6%89%8B</t>
@@ -281,7 +281,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%B4%B2%E8%81%B7%E6%A3%92%E5%A4%A7%E8%B3%BD</t>
   </si>
   <si>
-    <t>亞洲職棒大賽</t>
+    <t>亚洲职棒大赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9A%B4%E6%8A%95</t>
@@ -299,49 +299,49 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A0%B4%E5%85%A7%E5%85%A8%E5%A3%98%E6%89%93</t>
   </si>
   <si>
-    <t>場內全壘打</t>
+    <t>场内全垒打</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%9C%E5%A3%98</t>
   </si>
   <si>
-    <t>盜壘</t>
+    <t>盗垒</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A7%B8%E6%AE%BA</t>
   </si>
   <si>
-    <t>觸殺</t>
+    <t>触杀</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E5%AF%A9_(%E6%A3%92%E7%90%83)</t>
   </si>
   <si>
-    <t>主審 (棒球)</t>
+    <t>主审 (棒球)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%80%E5%A3%98%E5%AF%A9</t>
   </si>
   <si>
-    <t>一壘審</t>
+    <t>一垒审</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%8C%E5%A3%98%E5%AF%A9</t>
   </si>
   <si>
-    <t>二壘審</t>
+    <t>二垒审</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E5%A3%98%E5%AF%A9</t>
   </si>
   <si>
-    <t>三壘審</t>
+    <t>三垒审</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B7%91%E5%A3%98%E5%93%A1</t>
   </si>
   <si>
-    <t>跑壘員</t>
+    <t>跑垒员</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%95%8C%E5%A4%96%E7%90%83</t>
@@ -371,43 +371,43 @@
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E5%B1%AC</t>
   </si>
   <si>
-    <t>金屬</t>
+    <t>金属</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%B7%E6%A5%AD%E6%A3%92%E7%90%83</t>
   </si>
   <si>
-    <t>職業棒球</t>
+    <t>职业棒球</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BA%BB%E8%96%A9%E8%AB%B8%E5%A1%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>麻薩諸塞州</t>
+    <t>麻萨诸塞州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8A%AC%E5%A8%81%E7%90%83%E5%A0%B4</t>
   </si>
   <si>
-    <t>芬威球場</t>
+    <t>芬威球场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E7%88%BE%E7%9A%84%E6%91%A9</t>
   </si>
   <si>
-    <t>巴爾的摩</t>
+    <t>巴尔的摩</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E9%B6%AF%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>金鶯公園</t>
+    <t>金莺公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A3%AB%E9%A0%93%E7%B4%85%E8%A5%AA</t>
   </si>
   <si>
-    <t>波士頓紅襪</t>
+    <t>波士顿红袜</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%BF%E8%89%B2%E6%80%AA%E7%89%A9</t>
@@ -431,7 +431,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%B1%E8%AA%A4_(%E6%A3%92%E7%90%83)</t>
   </si>
   <si>
-    <t>失誤 (棒球)</t>
+    <t>失误 (棒球)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%87%BA%E5%B1%80_(%E6%A3%92%E7%90%83)</t>
@@ -443,85 +443,85 @@
     <t>https://zh.wikipedia.org/wiki/%E6%89%93%E6%93%8A%E7%8E%87</t>
   </si>
   <si>
-    <t>打擊率</t>
+    <t>打击率</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%93%E6%95%B8</t>
   </si>
   <si>
-    <t>打數</t>
+    <t>打数</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%93%E9%BB%9E</t>
   </si>
   <si>
-    <t>打點</t>
+    <t>打点</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E5%A3%98%E7%8E%87</t>
   </si>
   <si>
-    <t>上壘率</t>
+    <t>上垒率</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%9B%E5%A3%9E%E4%BF%9D%E9%80%81</t>
   </si>
   <si>
-    <t>四壞保送</t>
+    <t>四坏保送</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A7%B8%E8%BA%AB%E7%90%83</t>
   </si>
   <si>
-    <t>觸身球</t>
+    <t>触身球</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E9%A3%9B%E7%8A%A7%E7%89%B2%E6%89%93</t>
   </si>
   <si>
-    <t>高飛犧牲打</t>
+    <t>高飞牺牲打</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%95%B7%E6%89%93%E7%8E%87</t>
   </si>
   <si>
-    <t>長打率</t>
+    <t>长打率</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A3%98%E6%89%93%E6%95%B8</t>
   </si>
   <si>
-    <t>壘打數</t>
+    <t>垒打数</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E5%A3%98%E5%8A%A0%E9%95%B7%E6%89%93%E7%8E%87</t>
   </si>
   <si>
-    <t>上壘加長打率</t>
+    <t>上垒加长打率</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%94%E9%95%B7%E6%89%93%E7%8E%87</t>
   </si>
   <si>
-    <t>純長打率</t>
+    <t>纯长打率</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%9C%E5%A3%98%E7%8E%87</t>
   </si>
   <si>
-    <t>盜壘率</t>
+    <t>盗垒率</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%B2%E7%A6%A6%E7%8E%87</t>
   </si>
   <si>
-    <t>防禦率</t>
+    <t>防御率</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E8%B2%AC%E5%88%86</t>
   </si>
   <si>
-    <t>自責分</t>
+    <t>自责分</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E6%8C%AF%E7%8E%87</t>
@@ -551,7 +551,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BB%BE%E9%A3%9B%E6%AF%94</t>
   </si>
   <si>
-    <t>滾飛比</t>
+    <t>滚飞比</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC</t>
@@ -563,25 +563,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E5%B2%A1%E5%B8%82</t>
   </si>
   <si>
-    <t>福岡市</t>
+    <t>福冈市</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E5%B2%A1%E5%B7%A8%E8%9B%8B</t>
   </si>
   <si>
-    <t>福岡巨蛋</t>
+    <t>福冈巨蛋</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E9%9F%93</t>
   </si>
   <si>
-    <t>南韓</t>
+    <t>南韩</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B</t>
   </si>
   <si>
-    <t>中華民國</t>
+    <t>中华民国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%96%87</t>
@@ -593,13 +593,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E6%98%8E%E5%B0%BC%E5%8A%A0%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>多明尼加共和國</t>
+    <t>多明尼加共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A7%94%E5%85%A7%E7%91%9E%E6%8B%89</t>
   </si>
   <si>
-    <t>委內瑞拉</t>
+    <t>委内瑞拉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B7%B4</t>
@@ -617,13 +617,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD</t>
   </si>
   <si>
-    <t>荷蘭</t>
+    <t>荷兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9</t>
   </si>
   <si>
-    <t>義大利</t>
+    <t>义大利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E9%9D%9E</t>
@@ -635,117 +635,111 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E7%9B%83%E6%A3%92%E7%90%83%E8%B3%BD</t>
   </si>
   <si>
-    <t>世界盃棒球賽</t>
+    <t>世界杯棒球赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E5%A5%A7%E6%9C%83</t>
   </si>
   <si>
-    <t>國際奧會</t>
+    <t>国际奥会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>大聯盟</t>
+    <t>大联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2012%E5%B9%B4%E5%A4%8F%E5%AD%A3%E5%A5%A7%E6%9E%97%E5%8C%B9%E5%85%8B%E9%81%8B%E5%8B%95%E6%9C%83</t>
   </si>
   <si>
-    <t>2012年夏季奧林匹克運動會</t>
+    <t>2012年夏季奥林匹克运动会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2016%E5%B9%B4%E5%A4%8F%E5%AD%A3%E5%A5%A7%E6%9E%97%E5%8C%B9%E5%85%8B%E9%81%8B%E5%8B%95%E6%9C%83</t>
   </si>
   <si>
-    <t>2016年夏季奧林匹克運動會</t>
+    <t>2016年夏季奥林匹克运动会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A3%92%E7%90%83%E7%B8%BD%E6%9C%83</t>
   </si>
   <si>
-    <t>國際棒球總會</t>
+    <t>国际棒球总会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E6%A3%92%E7%90%83%E7%B6%93%E5%85%B8%E8%B3%BD</t>
   </si>
   <si>
-    <t>世界棒球經典賽</t>
+    <t>世界棒球经典赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E5%A3%98%E7%90%83%E7%B8%BD%E6%9C%83</t>
   </si>
   <si>
-    <t>國際壘球總會</t>
+    <t>国际垒球总会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E7%9B%83%E5%A5%B3%E5%AD%90%E6%A3%92%E7%90%83%E8%B3%BD</t>
   </si>
   <si>
-    <t>世界盃女子棒球賽</t>
+    <t>世界杯女子棒球赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E5%A4%A7%E5%AD%B8%E9%81%8B%E5%8B%95%E6%9C%83</t>
   </si>
   <si>
-    <t>世界大學運動會</t>
+    <t>世界大学运动会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E6%9E%97%E5%8C%B9%E5%85%8B%E9%81%8B%E5%8B%95%E6%9C%83</t>
   </si>
   <si>
-    <t>奧林匹克運動會</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/12U%E4%B8%96%E7%95%8C%E7%9B%83%E6%A3%92%E7%90%83%E8%B3%BD</t>
   </si>
   <si>
-    <t>12U世界盃棒球賽</t>
+    <t>12U世界杯棒球赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E6%A3%92%E7%90%8312%E5%BC%B7%E8%B3%BD</t>
   </si>
   <si>
-    <t>世界棒球12強賽</t>
+    <t>世界棒球12强赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/15U%E4%B8%96%E7%95%8C%E7%9B%83%E6%A3%92%E7%90%83%E8%B3%BD</t>
   </si>
   <si>
-    <t>15U世界盃棒球賽</t>
+    <t>15U世界杯棒球赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/18U%E4%B8%96%E7%95%8C%E7%9B%83%E6%A3%92%E7%90%83%E8%B3%BD</t>
   </si>
   <si>
-    <t>18U世界盃棒球賽</t>
+    <t>18U世界杯棒球赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/23U%E4%B8%96%E7%95%8C%E7%9B%83%E6%A3%92%E7%90%83%E8%B3%BD</t>
   </si>
   <si>
-    <t>23U世界盃棒球賽</t>
+    <t>23U世界杯棒球赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%B2%E9%9A%9B%E7%9B%83%E6%A3%92%E7%90%83%E8%B3%BD</t>
   </si>
   <si>
-    <t>洲際盃棒球賽</t>
+    <t>洲际杯棒球赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E9%81%8B%E6%9C%83</t>
   </si>
   <si>
-    <t>奧運會</t>
+    <t>奥运会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3</t>
   </si>
   <si>
-    <t>臺灣</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A2%A8%E8%A5%BF%E5%93%A5</t>
   </si>
   <si>
@@ -761,7 +755,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%8B%BF%E9%A6%AC</t>
   </si>
   <si>
-    <t>巴拿馬</t>
+    <t>巴拿马</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E5%8A%A0%E6%8B%89%E7%93%9C</t>
@@ -773,31 +767,31 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>中國大陸</t>
+    <t>中国大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E6%A3%92%E7%90%83%E8%81%AF%E8%B3%BD</t>
   </si>
   <si>
-    <t>中國棒球聯賽</t>
+    <t>中国棒球联赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%B7%E6%A3%92%E5%A4%A7%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>美國職棒大聯盟</t>
+    <t>美国职棒大联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E5%A5%A7%E6%9E%97%E5%8C%B9%E5%85%8B%E5%A7%94%E5%93%A1%E6%9C%83</t>
   </si>
   <si>
-    <t>國際奧林匹克委員會</t>
+    <t>国际奥林匹克委员会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A3%92%E7%B8%BD</t>
   </si>
   <si>
-    <t>國際棒總</t>
+    <t>国际棒总</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/IOC</t>
@@ -809,37 +803,37 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E9%81%8B</t>
   </si>
   <si>
-    <t>奧運</t>
+    <t>奥运</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E6%A3%92%E7%90%83%E4%BB%A3%E8%A1%A8%E9%9A%8A</t>
   </si>
   <si>
-    <t>日本棒球代表隊</t>
+    <t>日本棒球代表队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%93%E5%9C%8B</t>
   </si>
   <si>
-    <t>韓國</t>
+    <t>韩国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%83%E8%91%89%E7%BE%85%E5%BE%B7%E6%B5%B7%E6%B4%8B</t>
   </si>
   <si>
-    <t>千葉羅德海洋</t>
+    <t>千叶罗德海洋</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%B4%B2%E6%A3%92%E7%90%83%E9%8C%A6%E6%A8%99%E8%B3%BD</t>
   </si>
   <si>
-    <t>亞洲棒球錦標賽</t>
+    <t>亚洲棒球锦标赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E7%81%AB%E8%85%BF%E9%AC%A5%E5%A3%AB</t>
   </si>
   <si>
-    <t>日本火腿鬥士</t>
+    <t>日本火腿斗士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/La_New%E7%86%8A</t>
@@ -851,43 +845,43 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E6%98%9F%E7%8D%85</t>
   </si>
   <si>
-    <t>三星獅</t>
+    <t>三星狮</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A3%92%E7%90%83%E7%B8%BD%E6%9C%83%E4%B8%96%E7%95%8C%E6%8E%92%E5%90%8D</t>
   </si>
   <si>
-    <t>國際棒球總會世界排名</t>
+    <t>国际棒球总会世界排名</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%B2%E9%9A%9B%E6%9D%AF</t>
   </si>
   <si>
-    <t>洲際杯</t>
+    <t>洲际杯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%93%E5%9C%8B%E6%A3%92%E7%90%83%E4%BB%A3%E8%A1%A8%E9%9A%8A</t>
   </si>
   <si>
-    <t>韓國棒球代表隊</t>
+    <t>韩国棒球代表队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7%E6%A3%92%E7%90%83%E4%BB%A3%E8%A1%A8%E9%9A%8A</t>
   </si>
   <si>
-    <t>加拿大棒球代表隊</t>
+    <t>加拿大棒球代表队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E6%98%8E%E5%B0%BC%E5%8A%A0%E6%A3%92%E7%90%83%E4%BB%A3%E8%A1%A8%E9%9A%8A</t>
   </si>
   <si>
-    <t>多明尼加棒球代表隊</t>
+    <t>多明尼加棒球代表队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>小聯盟</t>
+    <t>小联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/YOUNG_GUNS</t>
@@ -917,13 +911,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A3%92%E7%90%83%E5%A4%A7%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>棒球大聯盟</t>
+    <t>棒球大联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BB%BF%E7%94%B0%E6%8B%93%E4%B9%9F</t>
   </si>
   <si>
-    <t>滿田拓也</t>
+    <t>满田拓也</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A3%92%E7%90%83%E8%8B%B1%E8%B1%AA</t>
@@ -965,31 +959,31 @@
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E9%87%8E%E4%B9%8B%E5%9F%8E</t>
   </si>
   <si>
-    <t>無野之城</t>
+    <t>无野之城</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E9%9B%BB%E5%BD%B1</t>
   </si>
   <si>
-    <t>香港電影</t>
+    <t>香港电影</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%B2%E7%BF%94</t>
   </si>
   <si>
-    <t>雲翔</t>
+    <t>云翔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%90%83%E6%84%9B%E5%A4%A9%E7%A9%BA</t>
   </si>
   <si>
-    <t>球愛天空</t>
+    <t>球爱天空</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E9%9B%BB%E5%BD%B1</t>
   </si>
   <si>
-    <t>台灣電影</t>
+    <t>台湾电影</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%8E%E6%81%B0%E6%81%B0</t>
@@ -1001,13 +995,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E8%81%B7%E6%A3%92</t>
   </si>
   <si>
-    <t>中華職棒</t>
+    <t>中华职棒</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%90%83%E4%BE%86%E5%B0%B1%E6%89%93</t>
   </si>
   <si>
-    <t>球來就打</t>
+    <t>球来就打</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%90%E7%AB%8B%E5%8A%9F</t>
@@ -1025,25 +1019,25 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AD%8F%E5%BE%B7%E8%81%96</t>
   </si>
   <si>
-    <t>魏德聖</t>
+    <t>魏德圣</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%BF%97%E7%BF%94</t>
   </si>
   <si>
-    <t>馬志翔</t>
+    <t>马志翔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E5%90%8E%E4%B9%8B%E6%88%B0</t>
   </si>
   <si>
-    <t>天后之戰</t>
+    <t>天后之战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%91%BD%E7%9F%B3%E7%8E%8B%E7%89%8C</t>
   </si>
   <si>
-    <t>鑽石王牌</t>
+    <t>钻石王牌</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%91%A8%E5%88%8A%E5%B0%91%E5%B9%B4Magazine</t>
@@ -1055,13 +1049,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BB%9E%E4%BA%94%E6%AD%A5</t>
   </si>
   <si>
-    <t>點五步</t>
+    <t>点五步</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%91%E5%80%91%E7%9A%84%E5%B0%91%E5%B9%B4%E6%99%82%E4%BB%A3</t>
   </si>
   <si>
-    <t>我們的少年時代</t>
+    <t>我们的少年时代</t>
   </si>
   <si>
     <t>https://zh.wikiquote.org/wiki/%E6%A3%92%E7%90%83</t>
@@ -1073,55 +1067,52 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E6%95%99%E7%A7%91%E6%9B%B8</t>
   </si>
   <si>
-    <t>維基教科書</t>
+    <t>维基教科书</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E8%A9%9E%E5%85%B8</t>
   </si>
   <si>
-    <t>維基詞典</t>
+    <t>维基词典</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E6%A3%92%E5%A3%98%E7%90%83%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>世界棒壘球聯盟</t>
+    <t>世界棒垒球联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A3%92%E7%90%83%E8%A1%93%E8%AA%9E%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>棒球術語列表</t>
+    <t>棒球术语列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E6%A3%92%E7%90%83%E9%8C%A6%E6%A8%99%E8%B3%BD</t>
   </si>
   <si>
-    <t>世界棒球錦標賽</t>
+    <t>世界棒球锦标赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A3%98%E7%90%83</t>
   </si>
   <si>
-    <t>壘球</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%B7%E6%A3%92</t>
   </si>
   <si>
-    <t>美國職棒</t>
+    <t>美国职棒</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E8%81%B7%E6%A3%92</t>
   </si>
   <si>
-    <t>日本職棒</t>
+    <t>日本职棒</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%93%E5%9C%8B%E8%81%B7%E6%A3%92</t>
   </si>
   <si>
-    <t>韓國職棒</t>
+    <t>韩国职棒</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A3%92%E7%90%83%E6%9C%8D</t>
@@ -1133,7 +1124,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A3%92%E7%90%83%E7%9A%84%E6%80%A7%E9%9A%B1%E5%96%BB</t>
   </si>
   <si>
-    <t>棒球的性隱喻</t>
+    <t>棒球的性隐喻</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%AD%A3%E5%A5%A5%E6%9E%97%E5%8C%B9%E5%85%8B%E8%BF%90%E5%8A%A8%E4%BC%9A%E6%A3%92%E7%90%83%E6%AF%94%E8%B5%9B</t>
@@ -1145,7 +1136,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E6%A3%92%E7%90%83%E7%B6%AD%E5%9F%BA%E9%A4%A8</t>
   </si>
   <si>
-    <t>台灣棒球維基館</t>
+    <t>台湾棒球维基馆</t>
   </si>
   <si>
     <t>http://twbsball.dils.tku.edu.tw/wiki/index.php/棒球</t>
@@ -1154,55 +1145,55 @@
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E5%9C%8B%E9%9A%9B%E6%A3%92%E7%90%83</t>
   </si>
   <si>
-    <t>Template talk-國際棒球</t>
+    <t>Template talk-国际棒球</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%AD%A3%E4%B8%96%E7%95%8C%E5%A4%A7%E5%AD%B8%E9%81%8B%E5%8B%95%E6%9C%83%E6%A3%92%E7%90%83%E6%AF%94%E8%B3%BD</t>
   </si>
   <si>
-    <t>夏季世界大學運動會棒球比賽</t>
+    <t>夏季世界大学运动会棒球比赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E5%A4%A7%E5%AD%B8%E6%A3%92%E7%90%83%E9%8C%A6%E6%A8%99%E8%B3%BD</t>
   </si>
   <si>
-    <t>世界大學棒球錦標賽</t>
+    <t>世界大学棒球锦标赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/U-23%E4%B8%96%E7%95%8C%E7%9B%83%E6%A3%92%E7%90%83%E8%B3%BD</t>
   </si>
   <si>
-    <t>U-23世界盃棒球賽</t>
+    <t>U-23世界杯棒球赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/U-18%E4%B8%96%E7%95%8C%E7%9B%83%E6%A3%92%E7%90%83%E8%B3%BD</t>
   </si>
   <si>
-    <t>U-18世界盃棒球賽</t>
+    <t>U-18世界杯棒球赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/U-15%E4%B8%96%E7%95%8C%E7%9B%83%E6%A3%92%E7%90%83%E8%B3%BD</t>
   </si>
   <si>
-    <t>U-15世界盃棒球賽</t>
+    <t>U-15世界杯棒球赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/U-12%E4%B8%96%E7%95%8C%E7%9B%83%E6%A3%92%E7%90%83%E8%B3%BD</t>
   </si>
   <si>
-    <t>U-12世界盃棒球賽</t>
+    <t>U-12世界杯棒球赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E9%80%A3%E7%9B%83%E5%9C%8B%E9%9A%9B%E6%A3%92%E7%90%83%E9%82%80%E8%AB%8B%E8%B3%BD</t>
   </si>
   <si>
-    <t>哈連盃國際棒球邀請賽</t>
+    <t>哈连杯国际棒球邀请赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%AF%E5%8F%A3%E7%9B%83%E5%9C%8B%E9%9A%9B%E6%A3%92%E7%90%83%E9%82%80%E8%AB%8B%E8%B3%BD</t>
   </si>
   <si>
-    <t>港口盃國際棒球邀請賽</t>
+    <t>港口杯国际棒球邀请赛</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/World_Baseball_Challenge</t>
@@ -1214,7 +1205,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E9%81%8B%E5%8B%95%E6%9C%83%E6%A3%92%E7%90%83%E6%AF%94%E8%B3%BD</t>
   </si>
   <si>
-    <t>世界運動會棒球比賽</t>
+    <t>世界运动会棒球比赛</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Women%27s_Baseball_World_Series</t>
@@ -1226,7 +1217,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%B4%B2%E6%A3%92%E7%90%83%E5%A3%98%E7%90%83%E5%8D%94%E6%9C%83</t>
   </si>
   <si>
-    <t>非洲棒球壘球協會</t>
+    <t>非洲棒球垒球协会</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Baseball_at_the_All-Africa_Games</t>
@@ -1238,13 +1229,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%9B%E7%BE%8E%E6%A3%92%E7%90%83%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>泛美棒球聯盟</t>
+    <t>泛美棒球联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%9B%E7%BE%8E%E9%81%8B%E5%8B%95%E6%9C%83%E6%A3%92%E7%90%83%E6%AF%94%E8%B3%BD</t>
   </si>
   <si>
-    <t>泛美運動會棒球比賽</t>
+    <t>泛美运动会棒球比赛</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Baseball_at_the_Central_American_and_Caribbean_Games</t>
@@ -1274,55 +1265,55 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%B4%B2%E6%A3%92%E7%90%83%E7%B8%BD%E6%9C%83</t>
   </si>
   <si>
-    <t>亞洲棒球總會</t>
+    <t>亚洲棒球总会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%B4%B2%E9%81%8B%E5%8B%95%E6%9C%83%E6%A3%92%E7%90%83%E6%AF%94%E8%B3%BD</t>
   </si>
   <si>
-    <t>亞洲運動會棒球比賽</t>
+    <t>亚洲运动会棒球比赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%B4%B2%E7%9B%83%E6%A3%92%E7%90%83%E8%B3%BD</t>
   </si>
   <si>
-    <t>亞洲盃棒球賽</t>
+    <t>亚洲杯棒球赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2013%E5%B9%B4%E6%9D%B1%E4%BA%9E%E9%81%8B%E5%8B%95%E6%9C%83%E6%A3%92%E7%90%83%E6%AF%94%E8%B3%BD</t>
   </si>
   <si>
-    <t>2013年東亞運動會棒球比賽</t>
+    <t>2013年东亚运动会棒球比赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E5%8D%97%E4%BA%9E%E9%81%8B%E5%8B%95%E6%9C%83%E6%A3%92%E7%90%83%E6%AF%94%E8%B3%BD</t>
   </si>
   <si>
-    <t>東南亞運動會棒球比賽</t>
+    <t>东南亚运动会棒球比赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%B4%B2%E8%81%B7%E6%A3%92%E5%86%A0%E8%BB%8D%E7%88%AD%E9%9C%B8%E8%B3%BD</t>
   </si>
   <si>
-    <t>亞洲職棒冠軍爭霸賽</t>
+    <t>亚洲职棒冠军争霸赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E6%A3%92%E7%90%83%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>歐洲棒球聯盟</t>
+    <t>欧洲棒球联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E6%A3%92%E7%90%83%E9%8C%A6%E6%A8%99%E8%B3%BD</t>
   </si>
   <si>
-    <t>歐洲棒球錦標賽</t>
+    <t>欧洲棒球锦标赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E7%9B%83_(%E6%A3%92%E7%90%83)</t>
   </si>
   <si>
-    <t>歐洲盃 (棒球)</t>
+    <t>欧洲杯 (棒球)</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Baseball_Confederation_of_Oceania</t>
@@ -1340,19 +1331,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E6%A3%92%E5%A3%98%E7%90%83%E8%81%AF%E7%9B%9F%E6%A3%92%E7%90%83%E4%B8%96%E7%95%8C%E6%8E%92%E5%90%8D</t>
   </si>
   <si>
-    <t>世界棒壘球聯盟棒球世界排名</t>
+    <t>世界棒垒球联盟棒球世界排名</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%91%E5%B9%B4%E6%A3%92%E7%90%83%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>少年棒球聯盟</t>
+    <t>少年棒球联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -1376,7 +1367,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>维基语录</t>
@@ -5027,7 +5018,7 @@
         <v>225</v>
       </c>
       <c r="F114" t="s">
-        <v>226</v>
+        <v>18</v>
       </c>
       <c r="G114" t="n">
         <v>2</v>
@@ -5053,10 +5044,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
+        <v>226</v>
+      </c>
+      <c r="F115" t="s">
         <v>227</v>
-      </c>
-      <c r="F115" t="s">
-        <v>228</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -5082,10 +5073,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
+        <v>228</v>
+      </c>
+      <c r="F116" t="s">
         <v>229</v>
-      </c>
-      <c r="F116" t="s">
-        <v>230</v>
       </c>
       <c r="G116" t="n">
         <v>2</v>
@@ -5111,10 +5102,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
+        <v>230</v>
+      </c>
+      <c r="F117" t="s">
         <v>231</v>
-      </c>
-      <c r="F117" t="s">
-        <v>232</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -5140,10 +5131,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
+        <v>232</v>
+      </c>
+      <c r="F118" t="s">
         <v>233</v>
-      </c>
-      <c r="F118" t="s">
-        <v>234</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -5169,10 +5160,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
+        <v>234</v>
+      </c>
+      <c r="F119" t="s">
         <v>235</v>
-      </c>
-      <c r="F119" t="s">
-        <v>236</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -5198,10 +5189,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
+        <v>236</v>
+      </c>
+      <c r="F120" t="s">
         <v>237</v>
-      </c>
-      <c r="F120" t="s">
-        <v>238</v>
       </c>
       <c r="G120" t="n">
         <v>2</v>
@@ -5227,10 +5218,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
+        <v>238</v>
+      </c>
+      <c r="F121" t="s">
         <v>239</v>
-      </c>
-      <c r="F121" t="s">
-        <v>240</v>
       </c>
       <c r="G121" t="n">
         <v>8</v>
@@ -5256,10 +5247,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F122" t="s">
-        <v>242</v>
+        <v>6</v>
       </c>
       <c r="G122" t="n">
         <v>2</v>
@@ -5285,10 +5276,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F123" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G123" t="n">
         <v>2</v>
@@ -5314,10 +5305,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F124" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G124" t="n">
         <v>2</v>
@@ -5343,10 +5334,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F125" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -5372,10 +5363,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F126" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -5401,10 +5392,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F127" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G127" t="n">
         <v>3</v>
@@ -5430,10 +5421,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F128" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5459,10 +5450,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F129" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G129" t="n">
         <v>5</v>
@@ -5488,10 +5479,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F130" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5517,10 +5508,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F131" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5575,10 +5566,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F133" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G133" t="n">
         <v>2</v>
@@ -5604,10 +5595,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F134" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G134" t="n">
         <v>14</v>
@@ -5633,10 +5624,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F135" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5662,10 +5653,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F136" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G136" t="n">
         <v>3</v>
@@ -5691,10 +5682,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F137" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5720,10 +5711,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F138" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G138" t="n">
         <v>2</v>
@@ -5749,10 +5740,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F139" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G139" t="n">
         <v>2</v>
@@ -5778,10 +5769,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F140" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5807,10 +5798,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F141" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G141" t="n">
         <v>2</v>
@@ -5836,10 +5827,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F142" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -5865,10 +5856,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F143" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -5894,10 +5885,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F144" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G144" t="n">
         <v>2</v>
@@ -5923,10 +5914,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F145" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G145" t="n">
         <v>2</v>
@@ -5952,10 +5943,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F146" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -5981,10 +5972,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F147" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -6010,10 +6001,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F148" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -6039,10 +6030,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F149" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -6068,10 +6059,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F150" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -6097,10 +6088,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F151" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -6126,10 +6117,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F152" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -6155,10 +6146,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F153" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -6184,10 +6175,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F154" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -6213,10 +6204,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F155" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -6242,10 +6233,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F156" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -6271,10 +6262,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F157" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6300,10 +6291,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F158" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -6329,10 +6320,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F159" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6358,10 +6349,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F160" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6387,10 +6378,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F161" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6416,10 +6407,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F162" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6445,10 +6436,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F163" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6474,10 +6465,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F164" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G164" t="n">
         <v>4</v>
@@ -6503,10 +6494,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F165" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6532,10 +6523,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F166" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G166" t="n">
         <v>5</v>
@@ -6561,10 +6552,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F167" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -6590,10 +6581,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F168" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6619,10 +6610,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F169" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -6648,10 +6639,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F170" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -6677,10 +6668,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F171" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -6706,10 +6697,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F172" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -6735,10 +6726,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F173" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -6764,10 +6755,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F174" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -6793,10 +6784,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F175" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -6822,10 +6813,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F176" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -6851,10 +6842,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F177" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -6880,10 +6871,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F178" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -6909,10 +6900,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F179" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -6938,10 +6929,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F180" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G180" t="n">
         <v>4</v>
@@ -6967,10 +6958,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F181" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -6996,10 +6987,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F182" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -7025,10 +7016,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F183" t="s">
-        <v>362</v>
+        <v>34</v>
       </c>
       <c r="G183" t="n">
         <v>13</v>
@@ -7054,10 +7045,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="F184" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="G184" t="n">
         <v>7</v>
@@ -7083,10 +7074,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F185" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -7112,10 +7103,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="F186" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -7141,10 +7132,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F187" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7170,10 +7161,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="F188" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7199,10 +7190,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="F189" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7228,10 +7219,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="F190" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7257,7 +7248,7 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="F191" t="s">
         <v>0</v>
@@ -7286,10 +7277,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="F192" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="G192" t="n">
         <v>3</v>
@@ -7315,10 +7306,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="F193" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7344,10 +7335,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="F194" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -7373,10 +7364,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="F195" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -7402,10 +7393,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="F196" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -7431,10 +7422,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="F197" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -7460,10 +7451,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="F198" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -7489,10 +7480,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="F199" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -7518,10 +7509,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="F200" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -7547,10 +7538,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="F201" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -7576,10 +7567,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="F202" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -7605,10 +7596,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="F203" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -7634,10 +7625,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="F204" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -7663,10 +7654,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="F205" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -7692,10 +7683,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="F206" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -7721,10 +7712,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="F207" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -7750,10 +7741,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="F208" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -7779,10 +7770,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="F209" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -7808,10 +7799,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="F210" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -7837,10 +7828,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="F211" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -7866,10 +7857,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="F212" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -7895,10 +7886,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="F213" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -7924,10 +7915,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="F214" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -7953,10 +7944,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="F215" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -7982,10 +7973,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="F216" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -8011,10 +8002,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="F217" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -8040,10 +8031,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="F218" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -8069,10 +8060,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="F219" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -8098,10 +8089,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="F220" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -8127,10 +8118,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="F221" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -8156,10 +8147,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="F222" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -8185,10 +8176,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="F223" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -8214,10 +8205,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="F224" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -8243,10 +8234,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="F225" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -8272,10 +8263,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="F226" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="G226" t="n">
         <v>3</v>
@@ -8301,10 +8292,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="F227" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -8330,10 +8321,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="F228" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -8359,10 +8350,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="F229" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -8388,10 +8379,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="F230" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -8417,10 +8408,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F231" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="G231" t="n">
         <v>2</v>

--- a/xlsx/棒球_intext.xlsx
+++ b/xlsx/棒球_intext.xlsx
@@ -29,7 +29,7 @@
     <t>棒球 (球)</t>
   </si>
   <si>
-    <t>政策_政策_美國_棒球</t>
+    <t>体育运动_体育运动_国际单项体育联合会总会_棒球</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3</t>
